--- a/资料/语音导游共享实施流程计划.xlsx
+++ b/资料/语音导游共享实施流程计划.xlsx
@@ -24,9 +24,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>长果云掌柜实施进度跟踪表</t>
-  </si>
-  <si>
     <t>表单号</t>
   </si>
   <si>
@@ -378,13 +375,17 @@
     <t>王小腊/吴勇科</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>语音导游实施进度跟踪表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -590,6 +591,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,42 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +914,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -934,72 +935,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1011,332 +1012,333 @@
     </row>
     <row r="5" spans="1:9" ht="13">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="13" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="21"/>
+      <c r="C11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="26" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="29" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="43" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1">
       <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="s">
+      <c r="C19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="28" t="s">
-        <v>76</v>
+      <c r="H19" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -1351,13 +1353,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
